--- a/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>63,71%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,36; 3,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 1,65</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,9</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,64; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,53%</t>
+          <t>-35,05%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,84</t>
+          <t>-5,0; 1,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,72; 196,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,24; 64,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,29</t>
+          <t>-2,62; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,03</t>
+          <t>-0,15; 5,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,74; 67,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,35; 220,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,14; 356,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>195,16%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,87%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,33%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,17</t>
+          <t>-1,02; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,1</t>
+          <t>-3,12; 3,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,54</t>
+          <t>-3,43; 1,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,79; —</t>
+          <t>-20,94; 107,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,37; 276,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,65; 50,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-42,49%</t>
+          <t>-24,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,03%</t>
+          <t>-11,62%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 0,91</t>
+          <t>-5,86; 0,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,42</t>
+          <t>-0,65; 5,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,23</t>
+          <t>-3,89; 2,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-76,17; 37,03</t>
+          <t>-49,22; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,28; 425,05</t>
+          <t>-9,49; 123,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 152,23</t>
+          <t>-49,89; 69,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>-20,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>48,01%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,43</t>
+          <t>-3,19; 4,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,62</t>
+          <t>-8,27; 4,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,95</t>
+          <t>-0,06; 6,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 312,63</t>
+          <t>-20,47; 47,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 260,52</t>
+          <t>-74,38; 63,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 50,27</t>
+          <t>-1,28; 120,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>-10,33%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,7</t>
+          <t>-6,53; 3,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,04</t>
+          <t>-4,6; 7,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,33</t>
+          <t>-6,2; 2,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 47,62</t>
+          <t>-25,64; 19,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,64; 24,52</t>
+          <t>-23,7; 54,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 102,76</t>
+          <t>-34,22; 21,81</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-32,27%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,37</t>
+          <t>-0,84; 1,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,55</t>
+          <t>-0,8; 2,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,33; -0,61</t>
+          <t>-0,65; 1,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 73,82</t>
+          <t>-8,98; 24,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 69,16</t>
+          <t>-14,09; 78,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,76; -6,22</t>
+          <t>-11,21; 37,87</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>37,89%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 6,54</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 4,16</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 5,72</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 110,12</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-48,61; 37,83</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 60,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-1,8</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-4,02%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>32,72%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-8,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 4,05</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 11,23</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; 2,56</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 28,98</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 65,22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-25,29; 13,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>27,75%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,89</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 2,88</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 1,47</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-11,24; 32,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 49,62</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 22,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,18</t>
+          <t>0,15; 2,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 1,65</t>
+          <t>-9,44; 1,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,23</t>
+          <t>-1,56; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,55</t>
+          <t>-1,05; 2,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 196,31</t>
+          <t>-79,05; 320,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-16,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,41</t>
+          <t>-2,3; 1,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,54</t>
+          <t>-2,41; 2,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,74; 67,95</t>
+          <t>-60,51; 81,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 220,34</t>
+          <t>-56,0; 181,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,4</t>
+          <t>-1,26; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,93</t>
+          <t>-3,13; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 107,99</t>
+          <t>-27,97; 96,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 276,25</t>
+          <t>-49,89; 292,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-24,96%</t>
+          <t>-16,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 0,34</t>
+          <t>-4,59; 1,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,89</t>
+          <t>-0,79; 5,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 5,58</t>
+          <t>-43,48; 19,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 123,93</t>
+          <t>-10,83; 117,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,95</t>
+          <t>-3,37; 4,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 4,55</t>
+          <t>-9,57; 4,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 47,12</t>
+          <t>-22,37; 40,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,38; 63,86</t>
+          <t>-84,78; 62,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 3,65</t>
+          <t>-7,15; 2,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,45</t>
+          <t>-4,33; 7,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 19,14</t>
+          <t>-28,18; 10,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 54,36</t>
+          <t>-21,83; 60,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,85</t>
+          <t>-0,64; 1,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,92</t>
+          <t>-1,07; 2,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 24,93</t>
+          <t>-8,02; 24,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 78,76</t>
+          <t>-17,24; 71,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_DIG-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-31,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-63,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>63,71%</t>
         </is>
       </c>
     </row>
@@ -642,19 +642,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,96; 1,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 2,9</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,15; 2,34</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 1,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 2,9</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-85,64; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-85,64; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,02</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-35,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-1,65%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>101,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-35,05%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,54; 3,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 1,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,56; 1,33</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 2,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 1,41</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-73,24; 64,44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-79,05; 320,02</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-73,24; 64,44</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>41,54%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-16,24%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,55; 3,05</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 5,41</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-2,3; 1,32</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 2,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 5,41</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-44,52; 256,94</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 356,18</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-60,51; 81,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-56,0; 181,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 356,18</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,73</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-28,54%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-19,33%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>19,19%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-19,33%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-4,52; 0,74</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 1,6</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-1,26; 2,91</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 3,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 1,6</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-60,02; 25,31</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-59,65; 50,49</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-27,97; 96,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-49,89; 292,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-59,65; 50,49</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-1,45</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>44,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-16,57%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>38,91%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-11,62%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,34; 6,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 2,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-4,59; 1,36</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 5,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 2,56</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-5,1; 122,1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-49,89; 69,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-43,48; 19,88</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 117,91</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-49,89; 69,2</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,81</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,74</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>48,95%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48,01%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>5,68%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,77%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>48,01%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,29; 8,03</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 6,53</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-3,37; 4,32</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,57; 4,38</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 6,53</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-4,76; 143,13</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 120,94</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-22,37; 40,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-84,78; 62,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 120,94</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,3</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-10,21%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,54%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-10,33%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-3,96; 7,79</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 2,94</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-7,15; 2,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 7,56</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 2,94</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-20,52; 64,02</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 21,81</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-28,18; 10,72</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-21,83; 60,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-34,22; 21,81</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,6</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>7,99%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>20,77%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,26; 2,71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,64; 1,72</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 2,7</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,65; 1,81</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4,11; 58,65</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 37,87</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-8,02; 24,7</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; 71,25</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-11,21; 37,87</t>
         </is>
       </c>
     </row>
